--- a/pred_ohlcv/54_21/2019-10-06 DVP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-06 DVP ohlcv.xlsx
@@ -730,7 +730,7 @@
         <v>-99727.31090000016</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-93910.33760000016</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-251509.5505000002</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-251509.5505000002</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-251723.0988000002</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-250085.5242000002</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-250085.5242000002</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-258629.2147000002</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-153495.5914000002</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-153495.5914000002</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-198714.3101000002</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-203075.8277000002</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-200584.8068000002</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-205509.2000000002</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-200437.9389000002</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-241037.4802000002</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-200843.2668000002</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-173010.5017000002</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-173010.5017000002</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-174173.4937000002</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-200308.2400000002</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-200308.2400000002</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-225500.3717000002</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-225163.9080000002</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-225143.9080000002</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-225143.9080000002</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>124927.6577999998</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>145943.3820999998</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>88702.25739999984</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>103587.2727999998</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>3012.773999999845</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-4543.103100000155</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-132428.4571773587</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-139178.5844773586</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-343441.8847773586</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-356083.6147773587</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-361264.7355870851</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-362985.7081870851</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-362956.090487085</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-409994.0538870851</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-451248.2437870851</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-446237.2437870851</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-581874.7647870851</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-581864.7647870851</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-625967.1049870851</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-625540.2290870851</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-710831.5420870851</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-673646.6815870851</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-950420.1514870852</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-950326.1451779369</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-950326.1451779369</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-1017191.232477937</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-1017191.232477937</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-1017181.232477937</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-1204251.818777937</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-1204241.818777937</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-1204251.818777937</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-1747856.045974003</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-1757373.045974003</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-2062000.858820715</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-2059386.414020715</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-2069645.334420715</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-2069635.334420715</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-2157054.414220715</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-2584322.951520715</v>
       </c>
       <c r="H414">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-3036993.333420715</v>
       </c>
       <c r="H415">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>-2739298.681389753</v>
       </c>
       <c r="H435">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>-2554477.187039921</v>
       </c>
       <c r="H464">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>-2525130.161639921</v>
       </c>
       <c r="H474">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>-1946759.162239922</v>
       </c>
       <c r="H488">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>-1349578.470767614</v>
       </c>
       <c r="H496">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>-1349578.470767614</v>
       </c>
       <c r="H497">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>-1515048.160967614</v>
       </c>
       <c r="H498">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>-1515820.446667613</v>
       </c>
       <c r="H499">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-06 DVP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-06 DVP ohlcv.xlsx
@@ -730,7 +730,7 @@
         <v>-99727.31090000016</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-93910.33760000016</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-251509.5505000002</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-251509.5505000002</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-251723.0988000002</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-250085.5242000002</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-250085.5242000002</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-258629.2147000002</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-153495.5914000002</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-153495.5914000002</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-198714.3101000002</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-203075.8277000002</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-200584.8068000002</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-205509.2000000002</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-200437.9389000002</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-241037.4802000002</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-200843.2668000002</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-173010.5017000002</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-173010.5017000002</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-174173.4937000002</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-200308.2400000002</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-200308.2400000002</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-225500.3717000002</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-225163.9080000002</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-225143.9080000002</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-225143.9080000002</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>130386.6230999998</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>124927.6577999998</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>124927.6577999998</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>145943.3820999998</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>88702.25739999984</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>103587.2727999998</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>3012.773999999845</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>3012.773999999845</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-4543.103100000155</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-132428.4571773587</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-139178.5844773586</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-343441.8847773586</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-356083.6147773587</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-361264.7355870851</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-362985.7081870851</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-362956.090487085</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-409994.0538870851</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-451248.2437870851</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-446237.2437870851</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-581874.7647870851</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-625540.2290870851</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-625957.1050870852</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-710831.5420870851</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-673646.6815870851</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-950420.1514870852</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-950326.1451779369</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-950326.1451779369</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-1017191.232477937</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-1017191.232477937</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-1017181.232477937</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-1204251.818777937</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-1204241.818777937</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-1204251.818777937</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-1747856.045974003</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-1757373.045974003</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-2062000.858820715</v>
       </c>
       <c r="H349">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-2059386.414020715</v>
       </c>
       <c r="H351">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-2069645.334420715</v>
       </c>
       <c r="H365">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-2069635.334420715</v>
       </c>
       <c r="H366">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-2157054.414220715</v>
       </c>
       <c r="H377">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-2584322.951520715</v>
       </c>
       <c r="H414">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-3036993.333420715</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-3055782.145372067</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>-2624666.409472066</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-2657848.448372066</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-2646725.860472066</v>
       </c>
       <c r="H430">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-2646745.860472066</v>
       </c>
       <c r="H431">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-2676100.527972066</v>
       </c>
       <c r="H433">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>-2685109.439535331</v>
       </c>
       <c r="H434">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>-2739298.681389753</v>
       </c>
       <c r="H435">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>-2739214.681389753</v>
       </c>
       <c r="H436">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>-2672853.596389753</v>
       </c>
       <c r="H437">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>-2672863.596389753</v>
       </c>
       <c r="H438">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>-2658074.928089753</v>
       </c>
       <c r="H439">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>-2660403.592289753</v>
       </c>
       <c r="H440">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>-2373800.424689753</v>
       </c>
       <c r="H441">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>-2236269.766889753</v>
       </c>
       <c r="H442">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>-2035702.531389753</v>
       </c>
       <c r="H443">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>-2083386.545989753</v>
       </c>
       <c r="H445">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>-2516612.952139921</v>
       </c>
       <c r="H457">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>-2560637.180239921</v>
       </c>
       <c r="H461">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>-2560637.180239921</v>
       </c>
       <c r="H462">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>-2560647.180239921</v>
       </c>
       <c r="H463">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>-2548497.852439921</v>
       </c>
       <c r="H470">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>-2539276.213239921</v>
       </c>
       <c r="H471">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>-2535022.430639921</v>
       </c>
       <c r="H472">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>-2535497.996739921</v>
       </c>
       <c r="H473">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>-2525130.161639921</v>
       </c>
       <c r="H474">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>-2521480.542539922</v>
       </c>
       <c r="H477">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>-2521480.542539922</v>
       </c>
       <c r="H478">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>-2527829.707439922</v>
       </c>
       <c r="H479">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>-2527829.707439922</v>
       </c>
       <c r="H480">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>-2516141.197239922</v>
       </c>
       <c r="H481">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>-2377910.213839922</v>
       </c>
       <c r="H482">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>-2377910.213839922</v>
       </c>
       <c r="H483">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>-1946759.162239922</v>
       </c>
       <c r="H488">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>-1349578.470767614</v>
       </c>
       <c r="H496">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>-1349578.470767614</v>
       </c>
       <c r="H497">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>-1515048.160967614</v>
       </c>
       <c r="H498">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>-1515820.446667613</v>
       </c>
       <c r="H499">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
